--- a/Public/campus-tracking-template.xlsx
+++ b/Public/campus-tracking-template.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\temp\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\recruitment\Public\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -16,9 +16,9 @@
   </sheets>
   <calcPr calcId="171027"/>
   <customWorkbookViews>
+    <customWorkbookView name="admin - Personal View" guid="{69061D0D-2ABB-4A11-9352-402B1526D9E6}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1696" windowHeight="1026" activeSheetId="1"/>
+    <customWorkbookView name="Grace Jin - Personal View" guid="{90086A53-4AD8-4685-9DE1-A559FAA9A682}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1616" windowHeight="876" activeSheetId="1"/>
     <customWorkbookView name="Xian(Nanjing)  Ding - Personal View" guid="{3804253B-C4D7-4E40-917B-6C002BADA240}" mergeInterval="0" personalView="1" maximized="1" xWindow="-9" yWindow="-9" windowWidth="1938" windowHeight="1050" activeSheetId="1"/>
-    <customWorkbookView name="Grace Jin - Personal View" guid="{90086A53-4AD8-4685-9DE1-A559FAA9A682}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1616" windowHeight="876" activeSheetId="1"/>
-    <customWorkbookView name="admin - Personal View" guid="{69061D0D-2ABB-4A11-9352-402B1526D9E6}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1696" windowHeight="1026" activeSheetId="1"/>
   </customWorkbookViews>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
   <si>
     <t>Candidate ID</t>
   </si>
@@ -145,6 +145,12 @@
   </si>
   <si>
     <t>查重</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>Active</t>
   </si>
 </sst>
 </file>
@@ -346,7 +352,7 @@
 </file>
 
 <file path=xl/revisions/revisionHeaders.xml><?xml version="1.0" encoding="utf-8"?>
-<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{00AEECC0-EC45-4CFA-82FF-76EF0F875BF9}" diskRevisions="1" revisionId="77" version="12">
+<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{881091DA-D8FF-4DD7-A59E-B742F6DA4E96}" diskRevisions="1" revisionId="81" version="13">
   <header guid="{8D7064BF-99A3-4512-93C0-23CCFCA6DB2B}" dateTime="2017-09-07T15:55:11" maxSheetId="2" userName="Xian(Nanjing)  Ding" r:id="rId1">
     <sheetIdMap count="1">
       <sheetId val="1"/>
@@ -403,6 +409,11 @@
     </sheetIdMap>
   </header>
   <header guid="{00AEECC0-EC45-4CFA-82FF-76EF0F875BF9}" dateTime="2017-09-18T16:18:00" maxSheetId="2" userName="admin" r:id="rId12" minRId="64" maxRId="77">
+    <sheetIdMap count="1">
+      <sheetId val="1"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{881091DA-D8FF-4DD7-A59E-B742F6DA4E96}" dateTime="2017-09-29T15:37:21" maxSheetId="2" userName="admin" r:id="rId13" minRId="78" maxRId="81">
     <sheetIdMap count="1">
       <sheetId val="1"/>
     </sheetIdMap>
@@ -2983,6 +2994,27 @@
       </ndxf>
     </rcc>
   </rrc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog13.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rrc rId="78" sId="1" ref="B1:B1048576" action="insertCol"/>
+  <rrc rId="79" sId="1" ref="C1:C1048576" action="insertCol"/>
+  <rcc rId="80" sId="1">
+    <nc r="B1" t="inlineStr">
+      <is>
+        <t>Status</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="81" sId="1">
+    <nc r="C1" t="inlineStr">
+      <is>
+        <t>Active</t>
+      </is>
+    </nc>
+  </rcc>
 </revisions>
 </file>
 
@@ -3663,150 +3695,154 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:XEA28"/>
+  <dimension ref="A1:XEC28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="11.85546875" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="12.28515625" customWidth="1"/>
-    <col min="5" max="5" width="12.7109375" customWidth="1"/>
-    <col min="6" max="6" width="18.28515625" customWidth="1"/>
-    <col min="7" max="7" width="17.28515625" customWidth="1"/>
-    <col min="8" max="8" width="10.140625" customWidth="1"/>
-    <col min="10" max="10" width="13.28515625" customWidth="1"/>
-    <col min="11" max="11" width="17" customWidth="1"/>
-    <col min="12" max="12" width="25.28515625" customWidth="1"/>
-    <col min="13" max="13" width="13.5703125" customWidth="1"/>
-    <col min="14" max="14" width="17.7109375" customWidth="1"/>
-    <col min="15" max="15" width="23.7109375" customWidth="1"/>
-    <col min="16" max="16" width="16" customWidth="1"/>
-    <col min="17" max="18" width="12.42578125" customWidth="1"/>
-    <col min="19" max="19" width="14" customWidth="1"/>
-    <col min="20" max="20" width="12.5703125" customWidth="1"/>
-    <col min="22" max="22" width="11.140625" customWidth="1"/>
-    <col min="23" max="23" width="12.85546875" customWidth="1"/>
-    <col min="24" max="24" width="13.7109375" customWidth="1"/>
-    <col min="25" max="25" width="11.5703125" customWidth="1"/>
-    <col min="27" max="35" width="18.28515625" customWidth="1"/>
-    <col min="36" max="36" width="12" customWidth="1"/>
+    <col min="4" max="4" width="11.85546875" customWidth="1"/>
+    <col min="5" max="5" width="15.42578125" customWidth="1"/>
+    <col min="6" max="6" width="12.28515625" customWidth="1"/>
+    <col min="7" max="7" width="12.7109375" customWidth="1"/>
+    <col min="8" max="8" width="18.28515625" customWidth="1"/>
+    <col min="9" max="9" width="17.28515625" customWidth="1"/>
+    <col min="10" max="10" width="10.140625" customWidth="1"/>
+    <col min="12" max="12" width="13.28515625" customWidth="1"/>
+    <col min="13" max="13" width="17" customWidth="1"/>
+    <col min="14" max="14" width="25.28515625" customWidth="1"/>
+    <col min="15" max="15" width="13.5703125" customWidth="1"/>
+    <col min="16" max="16" width="17.7109375" customWidth="1"/>
+    <col min="17" max="17" width="23.7109375" customWidth="1"/>
+    <col min="18" max="18" width="16" customWidth="1"/>
+    <col min="19" max="20" width="12.42578125" customWidth="1"/>
+    <col min="21" max="21" width="14" customWidth="1"/>
+    <col min="22" max="22" width="12.5703125" customWidth="1"/>
+    <col min="24" max="24" width="11.140625" customWidth="1"/>
+    <col min="25" max="25" width="12.85546875" customWidth="1"/>
+    <col min="26" max="26" width="13.7109375" customWidth="1"/>
+    <col min="27" max="27" width="11.5703125" customWidth="1"/>
+    <col min="29" max="37" width="18.28515625" customWidth="1"/>
+    <col min="38" max="38" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16355" s="12" customFormat="1" ht="24.6" customHeight="1">
+    <row r="1" spans="1:16357" s="12" customFormat="1" ht="24.6" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>35</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="K1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="Q1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="P1" s="4" t="s">
+      <c r="R1" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="Q1" s="3" t="s">
+      <c r="S1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="R1" s="3" t="s">
+      <c r="T1" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="S1" s="5" t="s">
+      <c r="U1" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="T1" s="6" t="s">
+      <c r="V1" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="U1" s="7" t="s">
+      <c r="W1" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="V1" s="8" t="s">
+      <c r="X1" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="W1" s="8" t="s">
+      <c r="Y1" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="X1" s="6" t="s">
+      <c r="Z1" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="Y1" s="9" t="s">
+      <c r="AA1" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="Z1" s="10" t="s">
+      <c r="AB1" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="AA1" s="3" t="s">
+      <c r="AC1" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="AB1" s="3" t="s">
+      <c r="AD1" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="AC1" s="3" t="s">
+      <c r="AE1" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="AD1" s="3" t="s">
+      <c r="AF1" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="AE1" s="3" t="s">
+      <c r="AG1" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="AF1" s="3" t="s">
+      <c r="AH1" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="AG1" s="3" t="s">
+      <c r="AI1" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="AH1" s="3" t="s">
+      <c r="AJ1" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="AI1" s="3" t="s">
+      <c r="AK1" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="AJ1" s="3" t="s">
+      <c r="AL1" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="AK1" s="11"/>
-      <c r="AL1" s="11"/>
       <c r="AM1" s="11"/>
       <c r="AN1" s="11"/>
       <c r="AO1" s="11"/>
@@ -20124,227 +20160,283 @@
       <c r="XDY1" s="11"/>
       <c r="XDZ1" s="11"/>
       <c r="XEA1" s="11"/>
+      <c r="XEB1" s="11"/>
+      <c r="XEC1" s="11"/>
     </row>
-    <row r="2" spans="1:16355">
+    <row r="2" spans="1:16357">
       <c r="A2" s="13">
-        <f>COUNTIF(C:C,C2)</f>
+        <f t="shared" ref="A2:A28" si="0">COUNTIF(E:E,E2)</f>
         <v>0</v>
       </c>
+      <c r="B2" s="13"/>
       <c r="C2" s="13"/>
-      <c r="Q2" s="13"/>
-      <c r="R2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="S2" s="13"/>
+      <c r="T2" s="13"/>
     </row>
-    <row r="3" spans="1:16355">
+    <row r="3" spans="1:16357">
       <c r="A3" s="13">
-        <f>COUNTIF(C:C,C3)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Q3" s="13"/>
-      <c r="R3" s="13"/>
+      <c r="B3" s="13"/>
+      <c r="C3" s="13"/>
+      <c r="S3" s="13"/>
+      <c r="T3" s="13"/>
     </row>
-    <row r="4" spans="1:16355">
+    <row r="4" spans="1:16357">
       <c r="A4" s="13">
-        <f>COUNTIF(C:C,C4)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Q4" s="13"/>
-      <c r="R4" s="13"/>
+      <c r="B4" s="13"/>
+      <c r="C4" s="13"/>
+      <c r="S4" s="13"/>
+      <c r="T4" s="13"/>
     </row>
-    <row r="5" spans="1:16355">
+    <row r="5" spans="1:16357">
       <c r="A5" s="13">
-        <f>COUNTIF(C:C,C5)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Q5" s="13"/>
-      <c r="R5" s="13"/>
+      <c r="B5" s="13"/>
+      <c r="C5" s="13"/>
+      <c r="S5" s="13"/>
+      <c r="T5" s="13"/>
     </row>
-    <row r="6" spans="1:16355">
+    <row r="6" spans="1:16357">
       <c r="A6" s="13">
-        <f>COUNTIF(C:C,C6)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Q6" s="13"/>
-      <c r="R6" s="13"/>
+      <c r="B6" s="13"/>
+      <c r="C6" s="13"/>
+      <c r="S6" s="13"/>
+      <c r="T6" s="13"/>
     </row>
-    <row r="7" spans="1:16355">
+    <row r="7" spans="1:16357">
       <c r="A7" s="13">
-        <f>COUNTIF(C:C,C7)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
+      <c r="B7" s="13"/>
+      <c r="C7" s="13"/>
     </row>
-    <row r="8" spans="1:16355">
+    <row r="8" spans="1:16357">
       <c r="A8" s="13">
-        <f>COUNTIF(C:C,C8)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
+      <c r="B8" s="13"/>
+      <c r="C8" s="13"/>
     </row>
-    <row r="9" spans="1:16355">
+    <row r="9" spans="1:16357">
       <c r="A9" s="13">
-        <f>COUNTIF(C:C,C9)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
+      <c r="B9" s="13"/>
+      <c r="C9" s="13"/>
     </row>
-    <row r="10" spans="1:16355">
+    <row r="10" spans="1:16357">
       <c r="A10" s="13">
-        <f>COUNTIF(C:C,C10)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
+      <c r="B10" s="13"/>
+      <c r="C10" s="13"/>
     </row>
-    <row r="11" spans="1:16355">
+    <row r="11" spans="1:16357">
       <c r="A11" s="13">
-        <f>COUNTIF(C:C,C11)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
+      <c r="B11" s="13"/>
+      <c r="C11" s="13"/>
     </row>
-    <row r="12" spans="1:16355">
+    <row r="12" spans="1:16357">
       <c r="A12" s="13">
-        <f>COUNTIF(C:C,C12)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
+      <c r="B12" s="13"/>
+      <c r="C12" s="13"/>
     </row>
-    <row r="13" spans="1:16355">
+    <row r="13" spans="1:16357">
       <c r="A13" s="13">
-        <f>COUNTIF(C:C,C13)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
+      <c r="B13" s="13"/>
+      <c r="C13" s="13"/>
     </row>
-    <row r="14" spans="1:16355">
+    <row r="14" spans="1:16357">
       <c r="A14" s="13">
-        <f>COUNTIF(C:C,C14)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
+      <c r="B14" s="13"/>
+      <c r="C14" s="13"/>
     </row>
-    <row r="15" spans="1:16355">
+    <row r="15" spans="1:16357">
       <c r="A15" s="13">
-        <f>COUNTIF(C:C,C15)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
+      <c r="B15" s="13"/>
+      <c r="C15" s="13"/>
     </row>
-    <row r="16" spans="1:16355">
+    <row r="16" spans="1:16357">
       <c r="A16" s="13">
-        <f>COUNTIF(C:C,C16)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
+      <c r="B16" s="13"/>
+      <c r="C16" s="13"/>
     </row>
-    <row r="17" spans="1:1">
+    <row r="17" spans="1:3">
       <c r="A17" s="13">
-        <f>COUNTIF(C:C,C17)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
+      <c r="B17" s="13"/>
+      <c r="C17" s="13"/>
     </row>
-    <row r="18" spans="1:1">
+    <row r="18" spans="1:3">
       <c r="A18" s="13">
-        <f>COUNTIF(C:C,C18)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
+      <c r="B18" s="13"/>
+      <c r="C18" s="13"/>
     </row>
-    <row r="19" spans="1:1">
+    <row r="19" spans="1:3">
       <c r="A19" s="13">
-        <f>COUNTIF(C:C,C19)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
+      <c r="B19" s="13"/>
+      <c r="C19" s="13"/>
     </row>
-    <row r="20" spans="1:1">
+    <row r="20" spans="1:3">
       <c r="A20" s="13">
-        <f>COUNTIF(C:C,C20)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
+      <c r="B20" s="13"/>
+      <c r="C20" s="13"/>
     </row>
-    <row r="21" spans="1:1">
+    <row r="21" spans="1:3">
       <c r="A21" s="13">
-        <f>COUNTIF(C:C,C21)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
+      <c r="B21" s="13"/>
+      <c r="C21" s="13"/>
     </row>
-    <row r="22" spans="1:1">
+    <row r="22" spans="1:3">
       <c r="A22" s="13">
-        <f>COUNTIF(C:C,C22)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
+      <c r="B22" s="13"/>
+      <c r="C22" s="13"/>
     </row>
-    <row r="23" spans="1:1">
+    <row r="23" spans="1:3">
       <c r="A23" s="13">
-        <f>COUNTIF(C:C,C23)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
+      <c r="B23" s="13"/>
+      <c r="C23" s="13"/>
     </row>
-    <row r="24" spans="1:1">
+    <row r="24" spans="1:3">
       <c r="A24" s="13">
-        <f>COUNTIF(C:C,C24)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
+      <c r="B24" s="13"/>
+      <c r="C24" s="13"/>
     </row>
-    <row r="25" spans="1:1">
+    <row r="25" spans="1:3">
       <c r="A25" s="13">
-        <f>COUNTIF(C:C,C25)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
+      <c r="B25" s="13"/>
+      <c r="C25" s="13"/>
     </row>
-    <row r="26" spans="1:1">
+    <row r="26" spans="1:3">
       <c r="A26" s="13">
-        <f>COUNTIF(C:C,C26)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
+      <c r="B26" s="13"/>
+      <c r="C26" s="13"/>
     </row>
-    <row r="27" spans="1:1">
+    <row r="27" spans="1:3">
       <c r="A27" s="13">
-        <f>COUNTIF(C:C,C27)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
+      <c r="B27" s="13"/>
+      <c r="C27" s="13"/>
     </row>
-    <row r="28" spans="1:1">
+    <row r="28" spans="1:3">
       <c r="A28" s="13">
-        <f>COUNTIF(C:C,C28)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
+      <c r="B28" s="13"/>
+      <c r="C28" s="13"/>
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{3804253B-C4D7-4E40-917B-6C002BADA240}">
-      <selection activeCell="D12" sqref="D12"/>
+    <customSheetView guid="{69061D0D-2ABB-4A11-9352-402B1526D9E6}" topLeftCell="C1">
+      <selection activeCell="M13" sqref="M13"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
     <customSheetView guid="{90086A53-4AD8-4685-9DE1-A559FAA9A682}" topLeftCell="G1">
       <selection activeCell="O16" sqref="O16"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
-    <customSheetView guid="{69061D0D-2ABB-4A11-9352-402B1526D9E6}" topLeftCell="C1">
-      <selection activeCell="M13" sqref="M13"/>
+    <customSheetView guid="{3804253B-C4D7-4E40-917B-6C002BADA240}">
+      <selection activeCell="D12" sqref="D12"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
   </customSheetViews>
-  <conditionalFormatting sqref="C1:D1">
+  <conditionalFormatting sqref="E1:F1">
     <cfRule type="duplicateValues" dxfId="5" priority="41"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C1:D1">
+  <conditionalFormatting sqref="E1:F1">
     <cfRule type="duplicateValues" dxfId="4" priority="42"/>
     <cfRule type="duplicateValues" dxfId="3" priority="43"/>
     <cfRule type="duplicateValues" dxfId="2" priority="44"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C1:D1">
+  <conditionalFormatting sqref="E1:F1">
     <cfRule type="duplicateValues" dxfId="1" priority="51"/>
     <cfRule type="duplicateValues" dxfId="0" priority="52"/>
   </conditionalFormatting>
   <dataValidations count="7">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AJ1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AL1">
       <formula1>"Yes,Weak Yes,No,Pending,No HC"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R1:R1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="T1:T1048576">
       <formula1>"51job,实习僧,91job,应届生求职网,应届毕业生网"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q1:Q1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S1:S1048576">
       <formula1>"Website,Jobfair, Campus Talk,ERBP"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1:F1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H1:H1048576">
       <formula1>"Marketing Technology,Analytics and Data Products,Digital Marketing,Digital Analytics"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G1:G1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I1:I1048576">
       <formula1>"Campaign,Dev,Operation,QA,Statistical Analyst,Website Analyst,Web Technical Anayst,Media Analyst,Email Dev,Graphic Designer"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J1:J1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L1:L1048576">
       <formula1>"Bachelor,Master"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I1:I1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K1:K1048576">
       <formula1>"Male,Female"</formula1>
     </dataValidation>
   </dataValidations>
